--- a/Resultados/Mercado mundial - Fresas.xlsx
+++ b/Resultados/Mercado mundial - Fresas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="United States of America" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Egypt" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Mexico" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Egipto" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -570,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -639,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -652,18 +652,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
+              <a:t>Importaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -721,7 +721,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Egypt'!$B$12:$B$73</f>
+              <f>'Egipto'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Egypt'!$C$12:$C$73</f>
+              <f>'Egipto'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>434977</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>24.1058</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>10485454.06</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>24.1058</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1040103.52</v>
@@ -2160,10 +2160,10 @@
         <v>423448</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>24.1999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>10247395.03</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>24.1999</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1059704.35</v>
@@ -2182,10 +2182,10 @@
         <v>408414</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>23.871</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>9749254.359999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>23.871</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1043550.91</v>
@@ -2204,10 +2204,10 @@
         <v>391049</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>23.1796</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>9064345.93</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>23.1796</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>963036.72</v>
@@ -2226,10 +2226,10 @@
         <v>401924</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22.6984</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>9123032.6</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22.6984</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>971045.99</v>
@@ -2248,10 +2248,10 @@
         <v>396087</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>21.6166</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>8562057.66</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>21.6166</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>905192.47</v>
@@ -2270,10 +2270,10 @@
         <v>370889</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>22.2527</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>8253272.83</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>22.2527</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>944724.71</v>
@@ -2292,10 +2292,10 @@
         <v>366009</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>22.0287</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>8062707.15</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>22.0287</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>893615.14</v>
@@ -2314,10 +2314,10 @@
         <v>377212</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>21.8514</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>8242610.84</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>21.8514</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>876798.24</v>
@@ -2336,10 +2336,10 @@
         <v>359072</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>21.3226</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>7656341.88</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>21.3226</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>878484.08</v>
@@ -2358,10 +2358,10 @@
         <v>354585</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>21.0257</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7455404.29</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>21.0257</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>887736</v>
@@ -2380,10 +2380,10 @@
         <v>330667</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>21.1446</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>6991815.24</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>21.1446</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>919439</v>
@@ -2402,10 +2402,10 @@
         <v>323924</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>19.7365</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6393106.85</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>19.7365</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>774311</v>
@@ -2424,10 +2424,10 @@
         <v>301059</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>20.9206</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6298346.69</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>20.9206</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>719640</v>
@@ -2446,10 +2446,10 @@
         <v>321351</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>20.3408</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6536528.88</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>20.3408</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>703741</v>
@@ -2468,10 +2468,10 @@
         <v>325537</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>18.7797</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6113503.7</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>18.7797</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>646084</v>
@@ -2490,10 +2490,10 @@
         <v>339830</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>17.0215</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5784406.07</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>17.0215</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>665151</v>
@@ -2512,10 +2512,10 @@
         <v>341662</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>17.3511</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5928200.17</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>17.3511</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>655260</v>
@@ -2534,10 +2534,10 @@
         <v>342970</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>17.0598</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5850997.12</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>17.0598</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>625678</v>
@@ -2556,10 +2556,10 @@
         <v>331732</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>16.9153</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5611343.42</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>16.9153</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>580156</v>
@@ -2578,10 +2578,10 @@
         <v>319443</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>16.1468</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5157995.52</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>16.1468</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>510042</v>
@@ -2600,10 +2600,10 @@
         <v>299634</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>15.7826</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4728992.84</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>15.7826</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>495456</v>
@@ -2622,10 +2622,10 @@
         <v>326421</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>14.0287</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4579266.63</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>14.0287</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>487995</v>
@@ -2644,10 +2644,10 @@
         <v>316448</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>14.4687</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4578581</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>14.4687</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>482716.7</v>
@@ -2666,10 +2666,10 @@
         <v>298849</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>14.7307</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>4402247.6</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>14.7307</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>479717.96</v>
@@ -2688,10 +2688,10 @@
         <v>276327</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>14.4003</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3979198.94</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>14.4003</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>448668.58</v>
@@ -2710,10 +2710,10 @@
         <v>260255</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>14.5095</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3776157.37</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>14.5095</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>402501.69</v>
@@ -2732,10 +2732,10 @@
         <v>262914</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>14.0666</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3698293.71</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>14.0666</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>377562.6</v>
@@ -2754,10 +2754,10 @@
         <v>263373</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>13.9905</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3684705.47</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>13.9905</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>398507.1</v>
@@ -2776,10 +2776,10 @@
         <v>240055</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>14.5465</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3491955.83</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>14.5465</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>376776.25</v>
@@ -2798,10 +2798,10 @@
         <v>249312</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>13.2007</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3291084.92</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>13.2007</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>296543</v>
@@ -2820,10 +2820,10 @@
         <v>233162</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>10.787</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2515113.25</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>10.787</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>298925</v>
@@ -2842,10 +2842,10 @@
         <v>210563</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>11.8438</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2493874.17</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>11.8438</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>317862</v>
@@ -2864,10 +2864,10 @@
         <v>209624</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>11.7456</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2462167</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>11.7456</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>277232</v>
@@ -2886,10 +2886,10 @@
         <v>213509</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>11.5267</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2461058</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>11.5267</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>291400</v>
@@ -2908,10 +2908,10 @@
         <v>209436</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>11.3782</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2383006</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>11.3782</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>282548</v>
@@ -2930,10 +2930,10 @@
         <v>210402</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>11.5792</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2436289</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>11.5792</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>276508</v>
@@ -2952,10 +2952,10 @@
         <v>198585</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>10.5975</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2104502</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>10.5975</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>210883</v>
@@ -2974,10 +2974,10 @@
         <v>197095</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>10.2732</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2024796</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>10.2732</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>192350</v>
@@ -2996,10 +2996,10 @@
         <v>164123</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>11.6522</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1912388</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>11.6522</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>173030</v>
@@ -3018,10 +3018,10 @@
         <v>162232</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>11.5355</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1871421</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>11.5355</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>149173</v>
@@ -3040,10 +3040,10 @@
         <v>164003</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>11.3393</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1859679</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>11.3393</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>134137</v>
@@ -3062,10 +3062,10 @@
         <v>161052</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>10.8723</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1751007</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>10.8723</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>128826</v>
@@ -3084,10 +3084,10 @@
         <v>170963</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>10.5024</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1795525</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>10.5024</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>159942</v>
@@ -3106,10 +3106,10 @@
         <v>161730</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>10.6925</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1729296</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>10.6925</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>171913</v>
@@ -3128,10 +3128,10 @@
         <v>161833</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>10.393</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1681937</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>10.393</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>168028</v>
@@ -3150,10 +3150,10 @@
         <v>149836</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>10.2463</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1535265</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>10.2463</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>137709</v>
@@ -3172,10 +3172,10 @@
         <v>145298</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>9.3581</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1359716</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>9.3581</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>125024</v>
@@ -3194,10 +3194,10 @@
         <v>146003</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>9.027700000000001</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1318064</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>9.027700000000001</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>111641</v>
@@ -3216,10 +3216,10 @@
         <v>145330</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>9.5405</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1386516</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>9.5405</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>133527</v>
@@ -3238,10 +3238,10 @@
         <v>142131</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>9.4415</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1341924</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>9.4415</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>138557</v>
@@ -3260,10 +3260,10 @@
         <v>129814</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9.0349</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1172859</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9.0349</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>122404</v>
@@ -3282,10 +3282,10 @@
         <v>135736</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>8.9534</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1215300</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>8.9534</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>101887</v>
@@ -3304,10 +3304,10 @@
         <v>135046</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>9.128299999999999</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1232747</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>9.128299999999999</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>101572</v>
@@ -3326,10 +3326,10 @@
         <v>127570</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.829499999999999</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1126378</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8.829499999999999</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>93446</v>
@@ -3348,10 +3348,10 @@
         <v>135702</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8.491100000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1152261</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>8.491100000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>54672</v>
@@ -3370,10 +3370,10 @@
         <v>135371</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.6008</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1164297</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.6008</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>65838</v>
@@ -3391,10 +3391,10 @@
         <v>134052</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.231999999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1103519</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.231999999999999</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>58301</v>
@@ -3412,10 +3412,10 @@
         <v>117744</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>8.125500000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>956733</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>8.125500000000001</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>54383</v>
@@ -3433,10 +3433,10 @@
         <v>91306</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9.9971</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>912792</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9.9971</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>53325</v>
@@ -3454,10 +3454,10 @@
         <v>92984</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8.4438</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>785138</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8.4438</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>40980</v>
@@ -3475,10 +3475,10 @@
         <v>95711</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>7.7031</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>737267</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>7.7031</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>40927</v>
@@ -3496,10 +3496,10 @@
         <v>94135</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8.0153</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>754516</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8.0153</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>46485</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>República de Corea</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Grecia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4313,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Azerbaiyán</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>155750</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>27.0258</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>4209269.86</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>27.0258</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5031,10 @@
         <v>147450</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>27.0031</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3981600</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>27.0031</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5051,10 @@
         <v>139310</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>26.6679</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3715100</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>26.6679</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.96</v>
@@ -5073,10 +5073,10 @@
         <v>131600</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>26.2044</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3448500</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>26.2044</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5093,10 +5093,10 @@
         <v>126126</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>25.9756</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3276200</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>25.9756</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.5</v>
@@ -5115,10 +5115,10 @@
         <v>120476</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>25.4017</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3060300</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>25.4017</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.5600000000000001</v>
@@ -5137,10 +5137,10 @@
         <v>107770</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>26.4554</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2851100</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>26.4554</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>47.58</v>
@@ -5159,10 +5159,10 @@
         <v>102390</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>26.1764</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2680200</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>26.1764</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.34</v>
@@ -5181,10 +5181,10 @@
         <v>108270</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>25.8936</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2803500</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>25.8936</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5201,10 +5201,10 @@
         <v>94820</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>26.2234</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2486500</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>26.2234</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.18</v>
@@ -5223,10 +5223,10 @@
         <v>91270</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>26.4753</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2416400</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>26.4753</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         <v>82600</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>26.8923</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2221300</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>26.8923</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5267,10 +5267,10 @@
         <v>78120</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>25.7117</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2008600</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>25.7117</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5289,10 +5289,10 @@
         <v>70500</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>25.4468</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1794000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>25.4468</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>73510</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>24.5953</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1808000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>24.5953</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5333,10 +5333,10 @@
         <v>76600</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>24.2324</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1856200</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>24.2324</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1</v>
@@ -5355,10 +5355,10 @@
         <v>75100</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>22.6059</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1697700</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>22.6059</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>79250</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>23.6492</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1874200</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>23.6492</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5399,10 +5399,10 @@
         <v>84200</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>23.2435</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1957100</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>23.2435</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5421,10 +5421,10 @@
         <v>82870</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>22.4267</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1858500</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>22.4267</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5443,10 +5443,10 @@
         <v>76860</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>22.0908</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1697900</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>22.0908</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5465,10 +5465,10 @@
         <v>66370</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>21.0095</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1394400</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>21.0095</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>19</v>
@@ -5487,10 +5487,10 @@
         <v>70000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>17.8571</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1250000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>17.8571</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>17</v>
@@ -5509,10 +5509,10 @@
         <v>65000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>18.1538</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1180000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>18.1538</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.25</v>
@@ -5531,10 +5531,10 @@
         <v>60000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>18.3333</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1100000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>18.3333</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1</v>
@@ -5553,10 +5553,10 @@
         <v>55000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1000000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>18.1818</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1</v>
@@ -5575,10 +5575,10 @@
         <v>45000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>900000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>8</v>
@@ -5597,10 +5597,10 @@
         <v>40000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>20.625</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>825000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>20.625</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1</v>
@@ -5619,10 +5619,10 @@
         <v>35000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>22.2857</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>780000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>22.2857</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>40</v>
@@ -5641,10 +5641,10 @@
         <v>30000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>750000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>25</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>5</v>
@@ -5663,10 +5663,10 @@
         <v>26000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>23.0769</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>23.0769</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -6378,7 +6378,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6457,10 +6457,10 @@
         <v>22986</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>54.3853</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1250100</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>54.3853</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>267013.56</v>
@@ -6479,10 +6479,10 @@
         <v>22784</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>56.7789</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1293650</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>56.7789</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>256033.34</v>
@@ -6501,10 +6501,10 @@
         <v>21246</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>57.0032</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1211090</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>57.0032</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>240380.32</v>
@@ -6523,10 +6523,10 @@
         <v>18818</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>64.28580000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1209730</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>64.28580000000001</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>197475.42</v>
@@ -6545,10 +6545,10 @@
         <v>17600</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>58.8125</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1035100</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>58.8125</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>186498.99</v>
@@ -6567,10 +6567,10 @@
         <v>19720</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>60.034</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1183870</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>60.034</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>161889.14</v>
@@ -6589,10 +6589,10 @@
         <v>21530</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>57.3214</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1234130</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>57.3214</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>166576.06</v>
@@ -6611,10 +6611,10 @@
         <v>21756</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>61.7277</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1342947</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>61.7277</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>165328.63</v>
@@ -6633,10 +6633,10 @@
         <v>23472</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>59.237</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1390410</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>59.237</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>142593.54</v>
@@ -6655,10 +6655,10 @@
         <v>24239</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>56.5836</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1371530</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>56.5836</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>161450.99</v>
@@ -6677,10 +6677,10 @@
         <v>24447</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>56.5344</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1382096</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>56.5344</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>149944</v>
@@ -6699,10 +6699,10 @@
         <v>23600</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>58.6593</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1384360</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>58.6593</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>159331</v>
@@ -6721,10 +6721,10 @@
         <v>23170</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>56.8041</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1316150</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>56.8041</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>110457</v>
@@ -6743,10 +6743,10 @@
         <v>23020</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>56.1968</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1293650</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>56.1968</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>89955</v>
@@ -6765,10 +6765,10 @@
         <v>23500</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>54.0698</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1270640</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>54.0698</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>84890</v>
@@ -6787,10 +6787,10 @@
         <v>22040</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>52.103</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1148350</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>52.103</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>64867</v>
@@ -6809,10 +6809,10 @@
         <v>21117</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>52.5271</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1109215</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>52.5271</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>71518</v>
@@ -6831,10 +6831,10 @@
         <v>21562</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>50.5721</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1090436</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>50.5721</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>69592</v>
@@ -6853,10 +6853,10 @@
         <v>21125</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>49.8576</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1053242</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>49.8576</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>55685</v>
@@ -6875,10 +6875,10 @@
         <v>20801</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>48.2747</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1004163</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>48.2747</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>42814</v>
@@ -6897,10 +6897,10 @@
         <v>19587</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>49.9283</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>977945</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>49.9283</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>40978</v>
@@ -6919,10 +6919,10 @@
         <v>19263</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>44.3776</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>854845</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>44.3776</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>40791</v>
@@ -6941,10 +6941,10 @@
         <v>18494</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>40.4934</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>748885</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>40.4934</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>32061</v>
@@ -6963,10 +6963,10 @@
         <v>19283</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>44.7455</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>862828</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>44.7455</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>34580.43</v>
@@ -6985,10 +6985,10 @@
         <v>18924</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>43.9261</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>831258</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>43.9261</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>43001</v>
@@ -7007,10 +7007,10 @@
         <v>18620</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>39.9436</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>743750</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>39.9436</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>26376</v>
@@ -7029,10 +7029,10 @@
         <v>17912</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>41.2212</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>738354</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>41.2212</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>14479</v>
@@ -7051,10 +7051,10 @@
         <v>19292</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>38.2279</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>737492</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>38.2279</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>30530</v>
@@ -7073,10 +7073,10 @@
         <v>19460</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>37.369</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>727200</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>37.369</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>26684</v>
@@ -7095,10 +7095,10 @@
         <v>19760</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>37.871</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>748330</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>37.871</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>19817</v>
@@ -7117,10 +7117,10 @@
         <v>20730</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>31.6749</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>656620</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>31.6749</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>14227</v>
@@ -7139,10 +7139,10 @@
         <v>20050</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>30.2244</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>606000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>30.2244</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>10797</v>
@@ -7161,10 +7161,10 @@
         <v>18660</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>33.2047</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>619600</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>33.2047</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>14265</v>
@@ -7183,10 +7183,10 @@
         <v>18690</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>30.4409</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>568940</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>30.4409</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>14598</v>
@@ -7205,10 +7205,10 @@
         <v>18660</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>27.7599</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>518000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>27.7599</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>16340</v>
@@ -7227,10 +7227,10 @@
         <v>19100</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>534800</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>28</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>17875</v>
@@ -7249,10 +7249,10 @@
         <v>18660</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>27.1597</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>506800</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>27.1597</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>15045</v>
@@ -7271,10 +7271,10 @@
         <v>17970</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>25.7284</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>462340</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>25.7284</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>5816</v>
@@ -7293,10 +7293,10 @@
         <v>17850</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>25.888</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>462100</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>25.888</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>4592</v>
@@ -7315,10 +7315,10 @@
         <v>17520</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>25.6542</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>449462</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>25.6542</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>3991</v>
@@ -7337,10 +7337,10 @@
         <v>17520</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>23.1326</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>405283</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>23.1326</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>2322</v>
@@ -7359,10 +7359,10 @@
         <v>16310</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>24.5536</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>400470</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>24.5536</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>2024</v>
@@ -7381,10 +7381,10 @@
         <v>14970</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>22.422</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>335657</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>22.422</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3025</v>
@@ -7403,10 +7403,10 @@
         <v>14610</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>21.7947</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>318420</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>21.7947</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>5749</v>
@@ -7425,10 +7425,10 @@
         <v>14770</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>19.5931</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>289390</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>19.5931</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>14073</v>
@@ -7447,10 +7447,10 @@
         <v>15210</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>19.6824</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>299369</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>19.6824</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>15272</v>
@@ -7469,10 +7469,10 @@
         <v>14450</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>20.7804</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>300277</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>20.7804</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>11064</v>
@@ -7491,10 +7491,10 @@
         <v>13960</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>18.8454</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>263082</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>18.8454</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>9804</v>
@@ -7513,10 +7513,10 @@
         <v>16020</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>15.5727</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>249475</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>15.5727</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>15704</v>
@@ -7535,10 +7535,10 @@
         <v>15900</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>15.3479</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>244031</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>15.3479</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>19802</v>
@@ -7557,10 +7557,10 @@
         <v>16430</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>13.2516</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>217723</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>13.2516</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>17661</v>
@@ -7579,10 +7579,10 @@
         <v>17560</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11.8822</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>208651</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11.8822</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>19611</v>
@@ -7601,10 +7601,10 @@
         <v>19340</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12.1958</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>235867</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12.1958</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>25544</v>
@@ -7623,10 +7623,10 @@
         <v>20400</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11.0285</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>224982</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11.0285</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>23184</v>
@@ -7645,10 +7645,10 @@
         <v>23100</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>9.543100000000001</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>220445</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>9.543100000000001</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>21114</v>
@@ -7667,10 +7667,10 @@
         <v>25330</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>9.4192</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>238589</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>9.4192</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -7689,10 +7689,10 @@
         <v>27120</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7.9278</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>215003</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7.9278</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -7710,10 +7710,10 @@
         <v>32010</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>6.575</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>210467</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>6.575</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>5958</v>
@@ -7731,10 +7731,10 @@
         <v>32050</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6.113899999999999</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>195952</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6.113899999999999</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2922</v>
@@ -7752,10 +7752,10 @@
         <v>30330</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>8.2254</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>249476</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>8.2254</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>2352</v>
@@ -7773,10 +7773,10 @@
         <v>32400</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>7.1399</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>231332</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>7.1399</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1654</v>
@@ -7794,10 +7794,10 @@
         <v>35580</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6.6338</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>236031</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6.6338</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>448</v>
@@ -7815,10 +7815,10 @@
         <v>35770</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.433</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>230110</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6.433</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>319</v>
@@ -8154,7 +8154,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8233,10 +8233,10 @@
         <v>21033</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>34.7612</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>731144.9300000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>34.7612</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -8253,10 +8253,10 @@
         <v>19236</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>35.8187</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>689013</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>35.8187</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8273,10 +8273,10 @@
         <v>17164</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>38.6661</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>663659</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>38.6661</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -8293,10 +8293,10 @@
         <v>11850</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>37.0236</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>438730</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>37.0236</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8313,10 +8313,10 @@
         <v>14350</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>38</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>545284</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>38</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1.8</v>
@@ -8335,10 +8335,10 @@
         <v>11604</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>38.358</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>445106</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>38.358</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0</v>
@@ -8357,10 +8357,10 @@
         <v>8085</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>39.4482</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>318950</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>39.4482</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -8377,10 +8377,10 @@
         <v>9595</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>39.4975</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>378960</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>39.4975</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>10.5</v>
@@ -8399,10 +8399,10 @@
         <v>9614</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>45.28230000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>435344</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>45.28230000000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.7</v>
@@ -8421,10 +8421,10 @@
         <v>6509</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>43.5506</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>283471</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>43.5506</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3.4</v>
@@ -8443,10 +8443,10 @@
         <v>5906</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>44.4348</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>262432</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>44.4348</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>5833</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>41.539</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>242297</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>41.539</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>7</v>
@@ -8487,10 +8487,10 @@
         <v>5628</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>42.6944</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>240284</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>42.6944</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>348</v>
@@ -8509,10 +8509,10 @@
         <v>5245</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>45.4589</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>238432</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>45.4589</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>5763</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>42.1267</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>242776</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>42.1267</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>10</v>
@@ -8553,10 +8553,10 @@
         <v>5232</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>38.27480000000001</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>200254</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>38.27480000000001</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1</v>
@@ -8575,10 +8575,10 @@
         <v>15059</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>11.582</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>174414</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>11.582</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -8597,10 +8597,10 @@
         <v>10201</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>12.582</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>128349</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>12.582</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>67</v>
@@ -8619,10 +8619,10 @@
         <v>3800</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>26.3158</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>26.3158</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2</v>
@@ -8641,10 +8641,10 @@
         <v>3838</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>27.3504</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>104971</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>27.3504</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -8663,10 +8663,10 @@
         <v>3072</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>25.9671</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>79771</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>25.9671</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -8685,10 +8685,10 @@
         <v>2419</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>24.8107</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>60017</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>24.8107</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>2700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>25.2359</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>68137</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>25.2359</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>2689</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>26.2596</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>70612</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>26.2596</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.86</v>
@@ -8751,10 +8751,10 @@
         <v>2271</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>23.6389</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>53684</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>23.6389</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>15</v>
@@ -8773,10 +8773,10 @@
         <v>2425</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>21.5757</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>52321</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>21.5757</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -8793,10 +8793,10 @@
         <v>1977</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>23.2362</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>45938</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>23.2362</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -8813,10 +8813,10 @@
         <v>1705</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>21.6974</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>36994</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>21.6974</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -8833,10 +8833,10 @@
         <v>1650</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>19.3939</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>32000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>19.3939</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -8853,10 +8853,10 @@
         <v>1580</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>17.0886</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>27000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>17.0886</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -8873,10 +8873,10 @@
         <v>1550</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>16.129</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>25000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>16.129</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -8893,10 +8893,10 @@
         <v>1594</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>15.8093</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>25200</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>15.8093</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -8913,10 +8913,10 @@
         <v>1969</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>15.1991</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>29927</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>15.1991</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -8933,10 +8933,10 @@
         <v>2634</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>16.3451</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>43053</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>16.3451</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -8953,10 +8953,10 @@
         <v>1680</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>15.422</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>25909</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>15.422</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -8973,10 +8973,10 @@
         <v>1680</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>14.4238</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>24232</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>14.4238</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -8993,10 +8993,10 @@
         <v>1260</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>15.8024</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>19911</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>15.8024</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -9013,10 +9013,10 @@
         <v>1680</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>16.7417</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>28126</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>16.7417</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -9033,10 +9033,10 @@
         <v>2100</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>10.2448</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>21514</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>10.2448</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -9053,10 +9053,10 @@
         <v>2100</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9.2043</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>19329</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9.2043</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -9073,10 +9073,10 @@
         <v>840</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>10.525</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8841</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>10.525</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -9093,10 +9093,10 @@
         <v>420</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>10.1952</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4282</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>10.1952</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -9113,10 +9113,10 @@
         <v>420</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2415</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5.75</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -9133,10 +9133,10 @@
         <v>420</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4.828600000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2028</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4.828600000000001</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -9152,10 +9152,10 @@
       <c r="C56" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
       <c r="C57" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D57" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
         <v>0</v>
@@ -9188,10 +9188,10 @@
       <c r="C58" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D58" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
         <v>0</v>
@@ -9206,10 +9206,10 @@
       <c r="C59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D59" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
         <v>0</v>
@@ -9224,10 +9224,10 @@
       <c r="C60" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D60" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
       <c r="C61" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D61" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
       <c r="C62" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
         <v>0</v>
@@ -9278,10 +9278,10 @@
       <c r="C63" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D63" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
         <v>0</v>
@@ -9296,10 +9296,10 @@
       <c r="C64" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D64" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
         <v>0</v>
@@ -9314,10 +9314,10 @@
       <c r="C65" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D65" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
         <v>0</v>
@@ -9332,10 +9332,10 @@
       <c r="C66" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
         <v>0</v>
@@ -9350,10 +9350,10 @@
       <c r="C67" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D67" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
         <v>0</v>
@@ -9368,10 +9368,10 @@
       <c r="C68" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D68" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
         <v>0</v>
@@ -9385,10 +9385,10 @@
       <c r="C69" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D69" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
         <v>0</v>
@@ -9402,10 +9402,10 @@
       <c r="C70" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
       <c r="C71" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D71" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
         <v>0</v>
@@ -9436,10 +9436,10 @@
       <c r="C72" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
         <v>0</v>
@@ -9453,10 +9453,10 @@
       <c r="C73" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
         <v>0</v>
@@ -9470,10 +9470,10 @@
       <c r="C74" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D74" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
         <v>0</v>
@@ -9806,7 +9806,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9885,10 +9885,10 @@
         <v>21984</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>30.7868</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>676818</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>30.7868</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>42.15</v>
@@ -9907,10 +9907,10 @@
         <v>22272</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>32.6918</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>728112</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>32.6918</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>13.69</v>
@@ -9929,10 +9929,10 @@
         <v>18676</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>35.8318</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>669195</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>35.8318</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4.9</v>
@@ -9951,10 +9951,10 @@
         <v>17978</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>30.3997</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>546525</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>30.3997</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>24.62</v>
@@ -9973,10 +9973,10 @@
         <v>16090</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>30.2489</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>486705</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>30.2489</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>232.69</v>
@@ -9995,10 +9995,10 @@
         <v>16102</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>27.3859</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>440968</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>27.3859</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>22.5</v>
@@ -10017,10 +10017,10 @@
         <v>15392</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>25.9984</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>400167</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>25.9984</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2.56</v>
@@ -10039,10 +10039,10 @@
         <v>15431</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>26.9036</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>415150</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>26.9036</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>9.85</v>
@@ -10061,10 +10061,10 @@
         <v>14189</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>26.4853</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>375800</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>26.4853</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>4.03</v>
@@ -10083,10 +10083,10 @@
         <v>13423</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>28.0168</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>376070</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>28.0168</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>10.37</v>
@@ -10105,10 +10105,10 @@
         <v>13549</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>27.4927</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>372498</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>27.4927</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>12793</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>27.5021</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>351834</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>27.5021</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -10149,10 +10149,10 @@
         <v>11967</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>25.2708</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>302416</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>25.2708</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -10171,10 +10171,10 @@
         <v>11679</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>25.682</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>299940</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>25.682</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>12150</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>24.0326</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>291996</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>24.0326</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>11279</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>23.1473</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>261078</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>23.1473</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -10237,10 +10237,10 @@
         <v>10955</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>22.9042</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>250916</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>22.9042</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>50</v>
@@ -10259,10 +10259,10 @@
         <v>9985</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>21.1444</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>211127</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>21.1444</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -10281,10 +10281,10 @@
         <v>10000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>200000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -10303,10 +10303,10 @@
         <v>9750</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>15.8974</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>155000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>15.8974</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10325,10 +10325,10 @@
         <v>10400</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>14.4231</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>150000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>14.4231</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -10347,10 +10347,10 @@
         <v>10000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>145000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>14.5</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>9700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>12.0619</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>117000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>12.0619</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10391,10 +10391,10 @@
         <v>9465</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>13.7348</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>130000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>13.7348</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -10413,10 +10413,10 @@
         <v>9400</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>13.7234</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>129000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>13.7234</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>395</v>
@@ -10435,10 +10435,10 @@
         <v>9200</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>13.0435</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>13.0435</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>25</v>
@@ -10457,10 +10457,10 @@
         <v>9050</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>12.1547</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>12.1547</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2</v>
@@ -10479,10 +10479,10 @@
         <v>8570</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>12.4854</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>107000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>12.4854</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -10501,10 +10501,10 @@
         <v>7150</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>10.6294</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>76000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>10.6294</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -10521,10 +10521,10 @@
         <v>6990</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>9.298999999999999</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>65000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>9.298999999999999</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -10541,10 +10541,10 @@
         <v>6270</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>9.5694</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>60000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>9.5694</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -10561,10 +10561,10 @@
         <v>5935</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8.4246</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8.4246</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -10581,10 +10581,10 @@
         <v>5566</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9.162799999999999</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>51000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9.162799999999999</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -10601,10 +10601,10 @@
         <v>5380</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>9.4796</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>51000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>9.4796</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -10621,10 +10621,10 @@
         <v>5200</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>9.615399999999999</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>9.615399999999999</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -10641,10 +10641,10 @@
         <v>4660</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>9.0129</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>42000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>9.0129</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -10661,10 +10661,10 @@
         <v>4620</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>8.657999999999999</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>40000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>8.657999999999999</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -10681,10 +10681,10 @@
         <v>5000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>35000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>7</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -10701,10 +10701,10 @@
         <v>5000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>33500</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6.7</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -10721,10 +10721,10 @@
         <v>5300</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4.717</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>25000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4.717</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -10741,10 +10741,10 @@
         <v>4500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>4.8889</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>22000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>4.8889</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -10761,10 +10761,10 @@
         <v>4000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>22000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>5.5</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -10781,10 +10781,10 @@
         <v>5000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>23000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4.6</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -10801,10 +10801,10 @@
         <v>5000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>23000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4.6</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -10821,10 +10821,10 @@
         <v>5000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>22000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4.4</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -10841,10 +10841,10 @@
         <v>3500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>21000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>6</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -10861,10 +10861,10 @@
         <v>3000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>18000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>6</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -10881,10 +10881,10 @@
         <v>3500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5.1429</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>18000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>5.1429</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -10901,10 +10901,10 @@
         <v>3400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4.764699999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>16200</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4.764699999999999</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -10921,10 +10921,10 @@
         <v>3300</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>16500</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -10941,10 +10941,10 @@
         <v>3081</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4.1545</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>12800</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4.1545</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -10961,10 +10961,10 @@
         <v>2460</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4.9797</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>12250</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4.9797</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -10981,10 +10981,10 @@
         <v>2851</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5.7874</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>16500</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5.7874</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11001,10 +11001,10 @@
         <v>2100</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4.619</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>9700</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4.619</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11021,10 +11021,10 @@
         <v>2060</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4.708699999999999</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>9700</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4.708699999999999</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11041,10 +11041,10 @@
         <v>2000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11061,10 +11061,10 @@
         <v>1600</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4.375</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11080,10 +11080,10 @@
         <v>1500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4.466699999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>6700</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4.466699999999999</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11099,10 +11099,10 @@
         <v>1450</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4.4828</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6500</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4.4828</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11118,10 +11118,10 @@
         <v>1450</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>4.4828</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6500</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>4.4828</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11137,10 +11137,10 @@
         <v>1450</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4.4828</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6500</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>4.4828</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11156,10 +11156,10 @@
         <v>1400</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>4.5714</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6400</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>4.5714</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11175,10 +11175,10 @@
         <v>1400</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4.5714</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6400</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4.5714</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11512,7 +11512,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11591,10 +11591,10 @@
         <v>15267</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>42.0235</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>641552.22</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>42.0235</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>25998.8</v>
@@ -11613,10 +11613,10 @@
         <v>13294</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>43.4888</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>578141.89</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>43.4888</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>24109.8</v>
@@ -11635,10 +11635,10 @@
         <v>11905</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>45.6016</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>542890.63</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>45.6016</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>16590.1</v>
@@ -11657,10 +11657,10 @@
         <v>12913</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>43.1738</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>557514.2</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>43.1738</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>15497.22</v>
@@ -11679,10 +11679,10 @@
         <v>16429</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>52.4263</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>861336.8199999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>52.4263</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>16959.8</v>
@@ -11701,10 +11701,10 @@
         <v>13652</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>47.8781</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>653639.24</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>47.8781</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>19029.56</v>
@@ -11723,10 +11723,10 @@
         <v>13850</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>47.5413</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>658435.89</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>47.5413</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>17484.6</v>
@@ -11745,10 +11745,10 @@
         <v>11091</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>42.219</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>468248.48</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>42.219</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>15707.2</v>
@@ -11767,10 +11767,10 @@
         <v>10073</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>38.9762</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>392625.19</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>38.9762</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>15149.18</v>
@@ -11789,10 +11789,10 @@
         <v>9966</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>46.0544</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>458971.63</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>46.0544</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>17647.46</v>
@@ -11811,10 +11811,10 @@
         <v>8496</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>44.6638</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>379464</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>44.6638</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>16331</v>
@@ -11833,10 +11833,10 @@
         <v>8664</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>41.6004</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>360426</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>41.6004</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>12262</v>
@@ -11855,10 +11855,10 @@
         <v>6978</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>32.8031</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>228900</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>32.8031</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>12407</v>
@@ -11877,10 +11877,10 @@
         <v>6282</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>36.0804</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>226657</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>36.0804</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>12484</v>
@@ -11899,10 +11899,10 @@
         <v>6678</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>34.89680000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>233041</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>34.89680000000001</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>14070</v>
@@ -11921,10 +11921,10 @@
         <v>6176</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>33.5954</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>207485</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>33.5954</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>24926</v>
@@ -11943,10 +11943,10 @@
         <v>6238</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>28.2777</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>176396</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>28.2777</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>20572</v>
@@ -11965,10 +11965,10 @@
         <v>6403</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>29.9614</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>191843</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>29.9614</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>18992</v>
@@ -11987,10 +11987,10 @@
         <v>5657</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>28.7479</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>162627</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>28.7479</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>13430</v>
@@ -12009,10 +12009,10 @@
         <v>6326</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>28.0161</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>177230</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>28.0161</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>12339</v>
@@ -12031,10 +12031,10 @@
         <v>5414</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>27.7542</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>150261</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>27.7542</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>11782</v>
@@ -12053,10 +12053,10 @@
         <v>5850</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>24.3154</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>142245</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>24.3154</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>13745</v>
@@ -12075,10 +12075,10 @@
         <v>5699</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>22.9317</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>130688</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>22.9317</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>9630</v>
@@ -12097,10 +12097,10 @@
         <v>6503</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>21.7023</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>141130</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>21.7023</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>10912.66</v>
@@ -12119,10 +12119,10 @@
         <v>6841</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>20.1339</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>137736</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>20.1339</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>5436</v>
@@ -12141,10 +12141,10 @@
         <v>6539</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>18.1687</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>118805</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>18.1687</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>3894</v>
@@ -12163,10 +12163,10 @@
         <v>6126</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>16.0624</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>98398</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>16.0624</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>3465</v>
@@ -12185,10 +12185,10 @@
         <v>7193</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>16.5644</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>119148</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>16.5644</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>4086</v>
@@ -12207,10 +12207,10 @@
         <v>7149</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>18.4416</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>131839</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>18.4416</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>3698</v>
@@ -12229,10 +12229,10 @@
         <v>4977</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>19.089</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>95006</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>19.089</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>9388</v>
@@ -12251,10 +12251,10 @@
         <v>5761</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>16.4307</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>94657</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>16.4307</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>6272</v>
@@ -12273,10 +12273,10 @@
         <v>5691</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>13.4579</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>76589</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>13.4579</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>5287</v>
@@ -12295,10 +12295,10 @@
         <v>7683</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>11.4749</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>88162</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>11.4749</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>3594</v>
@@ -12317,10 +12317,10 @@
         <v>5143</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>20.7879</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>106912</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>20.7879</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>862</v>
@@ -12339,10 +12339,10 @@
         <v>4649</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>18.1796</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>84517</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>18.1796</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>756</v>
@@ -12361,10 +12361,10 @@
         <v>5753</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>13.4797</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>77549</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>13.4797</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>69</v>
@@ -12383,10 +12383,10 @@
         <v>4632</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>18.3282</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>84896</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>18.3282</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>50</v>
@@ -12405,10 +12405,10 @@
         <v>3310</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>13.384</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>44301</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>13.384</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>13</v>
@@ -12427,10 +12427,10 @@
         <v>4401</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>12.8755</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>56665</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>12.8755</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>27</v>
@@ -12449,10 +12449,10 @@
         <v>2467</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>17.4832</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>43131</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>17.4832</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>30</v>
@@ -12471,10 +12471,10 @@
         <v>4341</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>17.9284</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>77827</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>17.9284</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12493,10 +12493,10 @@
         <v>4024</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.369</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>57821</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.369</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>120</v>
@@ -12515,10 +12515,10 @@
         <v>3706</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>14.547</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>53911</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>14.547</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>344</v>
@@ -12537,10 +12537,10 @@
         <v>6133</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12.7375</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>78119</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12.7375</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>22</v>
@@ -12559,10 +12559,10 @@
         <v>8025</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15.0218</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>120550</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15.0218</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12581,10 +12581,10 @@
         <v>6237</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>15.9338</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>99379</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>15.9338</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -12603,10 +12603,10 @@
         <v>5631</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>18.4763</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>104040</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>18.4763</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -12625,10 +12625,10 @@
         <v>5380</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16.6024</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>89321</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16.6024</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -12647,10 +12647,10 @@
         <v>5406</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>12.7636</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>69000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>12.7636</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -12669,10 +12669,10 @@
         <v>5659</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>17.9871</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>101789</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>17.9871</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -12691,10 +12691,10 @@
         <v>6681</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>15.7228</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>105044</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>15.7228</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -12713,10 +12713,10 @@
         <v>5758</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>15.5391</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>89474</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>15.5391</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -12735,10 +12735,10 @@
         <v>6903</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>14.9848</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>103440</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>14.9848</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -12757,10 +12757,10 @@
         <v>7873</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>16.1217</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>126926</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>16.1217</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -12779,10 +12779,10 @@
         <v>6576</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>15.8446</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>104194</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>15.8446</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -12801,10 +12801,10 @@
         <v>6989</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>16.4812</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>115187</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>16.4812</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -12823,10 +12823,10 @@
         <v>8302</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>15.3963</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>127820</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>15.3963</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -12844,10 +12844,10 @@
         <v>8832</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>16.2671</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>143671</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>16.2671</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -12865,10 +12865,10 @@
         <v>6395</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>13.6832</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>87504</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>13.6832</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -12886,10 +12886,10 @@
         <v>5215</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>13.7457</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>71684</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>13.7457</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -12907,10 +12907,10 @@
         <v>6280</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5.276</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>33133</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5.276</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -12928,10 +12928,10 @@
         <v>6559</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5.2331</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>34324</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5.2331</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -12949,10 +12949,10 @@
         <v>5284</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4.7192</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>24936</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4.7192</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Fresas.xlsx
+++ b/Resultados/Mercado mundial - Fresas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Egipto" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="United States of America" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Egypt" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mexico" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Egipto'!$B$12:$B$74</f>
+              <f>'Egypt'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Egipto'!$C$12:$C$74</f>
+              <f>'Egypt'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,10 +1006,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>434977</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>10485454.06</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>24.1058</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>10485454.06</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1040103.52</v>
@@ -2160,10 +2160,10 @@
         <v>423448</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>10247395.03</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>24.1999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>10247395.03</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1059704.35</v>
@@ -2182,10 +2182,10 @@
         <v>408414</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>9749254.359999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>23.871</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>9749254.359999999</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1043550.91</v>
@@ -2204,10 +2204,10 @@
         <v>391049</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>9064345.93</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>23.1796</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>9064345.93</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>963036.72</v>
@@ -2226,10 +2226,10 @@
         <v>401924</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>9123032.6</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22.6984</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>9123032.6</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>971045.99</v>
@@ -2248,10 +2248,10 @@
         <v>396087</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>8562057.66</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>21.6166</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>8562057.66</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>905192.47</v>
@@ -2270,10 +2270,10 @@
         <v>370889</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>8253272.83</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>22.2527</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>8253272.83</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>944724.71</v>
@@ -2292,10 +2292,10 @@
         <v>366009</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>8062707.15</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>22.0287</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>8062707.15</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>893615.14</v>
@@ -2314,10 +2314,10 @@
         <v>377212</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>8242610.84</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>21.8514</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>8242610.84</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>876798.24</v>
@@ -2336,10 +2336,10 @@
         <v>359072</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>7656341.88</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>21.3226</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>7656341.88</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>878484.08</v>
@@ -2358,10 +2358,10 @@
         <v>354585</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7455404.29</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>21.0257</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7455404.29</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>887736</v>
@@ -2380,10 +2380,10 @@
         <v>330667</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>6991815.24</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>21.1446</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>6991815.24</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>919439</v>
@@ -2402,10 +2402,10 @@
         <v>323924</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6393106.85</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>19.7365</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6393106.85</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>774311</v>
@@ -2424,10 +2424,10 @@
         <v>301059</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6298346.69</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>20.9206</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6298346.69</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>719640</v>
@@ -2446,10 +2446,10 @@
         <v>321351</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6536528.88</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>20.3408</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>6536528.88</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>703741</v>
@@ -2468,10 +2468,10 @@
         <v>325537</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6113503.7</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>18.7797</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6113503.7</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>646084</v>
@@ -2490,10 +2490,10 @@
         <v>339830</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5784406.07</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>17.0215</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5784406.07</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>665151</v>
@@ -2512,10 +2512,10 @@
         <v>341662</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5928200.17</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>17.3511</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5928200.17</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>655260</v>
@@ -2534,10 +2534,10 @@
         <v>342970</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5850997.12</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>17.0598</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5850997.12</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>625678</v>
@@ -2556,10 +2556,10 @@
         <v>331732</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5611343.42</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>16.9153</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5611343.42</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>580156</v>
@@ -2578,10 +2578,10 @@
         <v>319443</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5157995.52</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>16.1468</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5157995.52</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>510042</v>
@@ -2600,10 +2600,10 @@
         <v>299634</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4728992.84</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>15.7826</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4728992.84</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>495456</v>
@@ -2622,10 +2622,10 @@
         <v>326421</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4579266.63</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>14.0287</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4579266.63</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>487995</v>
@@ -2644,10 +2644,10 @@
         <v>316448</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4578581</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>14.4687</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4578581</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>482716.7</v>
@@ -2666,10 +2666,10 @@
         <v>298849</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>4402247.6</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>14.7307</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>4402247.6</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>479717.96</v>
@@ -2688,10 +2688,10 @@
         <v>276327</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3979198.94</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>14.4003</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3979198.94</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>448668.58</v>
@@ -2710,10 +2710,10 @@
         <v>260255</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3776157.37</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>14.5095</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3776157.37</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>402501.69</v>
@@ -2732,10 +2732,10 @@
         <v>262914</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3698293.71</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>14.0666</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3698293.71</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>377562.6</v>
@@ -2754,10 +2754,10 @@
         <v>263373</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3684705.47</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>13.9905</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3684705.47</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>398507.1</v>
@@ -2776,10 +2776,10 @@
         <v>240055</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3491955.83</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>14.5465</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3491955.83</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>376776.25</v>
@@ -2798,10 +2798,10 @@
         <v>249312</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3291084.92</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>13.2007</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3291084.92</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>296543</v>
@@ -2820,10 +2820,10 @@
         <v>233162</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2515113.25</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>10.787</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2515113.25</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>298925</v>
@@ -2842,10 +2842,10 @@
         <v>210563</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2493874.17</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>11.8438</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2493874.17</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>317862</v>
@@ -2864,10 +2864,10 @@
         <v>209624</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2462167</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>11.7456</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2462167</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>277232</v>
@@ -2886,10 +2886,10 @@
         <v>213509</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2461058</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>11.5267</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2461058</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>291400</v>
@@ -2908,10 +2908,10 @@
         <v>209436</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2383006</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>11.3782</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2383006</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>282548</v>
@@ -2930,10 +2930,10 @@
         <v>210402</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2436289</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>11.5792</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2436289</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>276508</v>
@@ -2952,10 +2952,10 @@
         <v>198585</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2104502</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>10.5975</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2104502</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>210883</v>
@@ -2974,10 +2974,10 @@
         <v>197095</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2024796</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>10.2732</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2024796</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>192350</v>
@@ -2996,10 +2996,10 @@
         <v>164123</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1912388</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>11.6522</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1912388</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>173030</v>
@@ -3018,10 +3018,10 @@
         <v>162232</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1871421</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>11.5355</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1871421</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>149173</v>
@@ -3040,10 +3040,10 @@
         <v>164003</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1859679</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>11.3393</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1859679</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>134137</v>
@@ -3062,10 +3062,10 @@
         <v>161052</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1751007</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>10.8723</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1751007</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>128826</v>
@@ -3084,10 +3084,10 @@
         <v>170963</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1795525</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>10.5024</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1795525</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>159942</v>
@@ -3106,10 +3106,10 @@
         <v>161730</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1729296</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>10.6925</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1729296</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>171913</v>
@@ -3128,10 +3128,10 @@
         <v>161833</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1681937</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>10.393</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1681937</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>168028</v>
@@ -3150,10 +3150,10 @@
         <v>149836</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1535265</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>10.2463</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1535265</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>137709</v>
@@ -3172,10 +3172,10 @@
         <v>145298</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1359716</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>9.3581</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1359716</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>125024</v>
@@ -3194,10 +3194,10 @@
         <v>146003</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1318064</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>9.027700000000001</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1318064</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>111641</v>
@@ -3216,10 +3216,10 @@
         <v>145330</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1386516</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>9.5405</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1386516</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>133527</v>
@@ -3238,10 +3238,10 @@
         <v>142131</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1341924</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>9.4415</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1341924</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>138557</v>
@@ -3260,10 +3260,10 @@
         <v>129814</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1172859</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9.0349</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1172859</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>122404</v>
@@ -3282,10 +3282,10 @@
         <v>135736</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1215300</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>8.9534</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1215300</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>101887</v>
@@ -3304,10 +3304,10 @@
         <v>135046</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1232747</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>9.128299999999999</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1232747</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>101572</v>
@@ -3326,10 +3326,10 @@
         <v>127570</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1126378</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.829499999999999</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1126378</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>93446</v>
@@ -3348,10 +3348,10 @@
         <v>135702</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1152261</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8.491100000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1152261</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>54672</v>
@@ -3370,10 +3370,10 @@
         <v>135371</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1164297</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.6008</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1164297</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>65838</v>
@@ -3391,10 +3391,10 @@
         <v>134052</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1103519</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.231999999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1103519</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>58301</v>
@@ -3412,10 +3412,10 @@
         <v>117744</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>956733</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>8.125500000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>956733</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>54383</v>
@@ -3433,10 +3433,10 @@
         <v>91306</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>912792</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9.9971</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>912792</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>53325</v>
@@ -3454,10 +3454,10 @@
         <v>92984</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>785138</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8.4438</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>785138</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>40980</v>
@@ -3475,10 +3475,10 @@
         <v>95711</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>737267</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>7.7031</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>737267</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>40927</v>
@@ -3496,10 +3496,10 @@
         <v>94135</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>754516</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8.0153</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>754516</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>46485</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>República de Corea</t>
+          <t>Republic of Korea</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Grecia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4313,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Azerbaiyán</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>155750</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>4209269.86</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>27.0258</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>4209269.86</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5031,10 @@
         <v>147450</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3981600</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>27.0031</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3981600</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5051,10 @@
         <v>139310</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3715100</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>26.6679</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3715100</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.96</v>
@@ -5073,10 +5073,10 @@
         <v>131600</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3448500</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>26.2044</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3448500</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5093,10 +5093,10 @@
         <v>126126</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3276200</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>25.9756</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3276200</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.5</v>
@@ -5115,10 +5115,10 @@
         <v>120476</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3060300</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>25.4017</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3060300</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.5600000000000001</v>
@@ -5137,10 +5137,10 @@
         <v>107770</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2851100</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>26.4554</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2851100</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>47.58</v>
@@ -5159,10 +5159,10 @@
         <v>102390</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2680200</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>26.1764</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2680200</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.34</v>
@@ -5181,10 +5181,10 @@
         <v>108270</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2803500</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>25.8936</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2803500</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5201,10 +5201,10 @@
         <v>94820</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2486500</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>26.2234</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2486500</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.18</v>
@@ -5223,10 +5223,10 @@
         <v>91270</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2416400</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>26.4753</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2416400</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         <v>82600</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2221300</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>26.8923</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2221300</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5267,10 +5267,10 @@
         <v>78120</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2008600</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>25.7117</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2008600</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5289,10 +5289,10 @@
         <v>70500</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1794000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>25.4468</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1794000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>73510</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1808000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>24.5953</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1808000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5333,10 +5333,10 @@
         <v>76600</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1856200</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>24.2324</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1856200</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1</v>
@@ -5355,10 +5355,10 @@
         <v>75100</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1697700</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>22.6059</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1697700</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>79250</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1874200</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>23.6492</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1874200</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5399,10 +5399,10 @@
         <v>84200</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1957100</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>23.2435</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1957100</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5421,10 +5421,10 @@
         <v>82870</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1858500</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>22.4267</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1858500</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5443,10 +5443,10 @@
         <v>76860</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1697900</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>22.0908</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1697900</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5465,10 +5465,10 @@
         <v>66370</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1394400</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>21.0095</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1394400</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>19</v>
@@ -5487,10 +5487,10 @@
         <v>70000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>17.8571</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1250000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>17</v>
@@ -5509,10 +5509,10 @@
         <v>65000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1180000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>18.1538</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1180000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.25</v>
@@ -5531,10 +5531,10 @@
         <v>60000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>18.3333</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1100000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1</v>
@@ -5553,10 +5553,10 @@
         <v>55000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>18.1818</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1000000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1</v>
@@ -5575,10 +5575,10 @@
         <v>45000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>900000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>8</v>
@@ -5597,10 +5597,10 @@
         <v>40000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>825000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>20.625</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>825000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1</v>
@@ -5619,10 +5619,10 @@
         <v>35000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>780000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>22.2857</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>780000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>40</v>
@@ -5641,10 +5641,10 @@
         <v>30000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>750000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>25</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>750000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>5</v>
@@ -5663,10 +5663,10 @@
         <v>26000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>23.0769</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -6378,7 +6378,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6457,10 +6457,10 @@
         <v>22986</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1250100</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>54.3853</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1250100</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>267013.56</v>
@@ -6479,10 +6479,10 @@
         <v>22784</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1293650</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>56.7789</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1293650</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>256033.34</v>
@@ -6501,10 +6501,10 @@
         <v>21246</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1211090</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>57.0032</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1211090</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>240380.32</v>
@@ -6523,10 +6523,10 @@
         <v>18818</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1209730</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>64.28580000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1209730</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>197475.42</v>
@@ -6545,10 +6545,10 @@
         <v>17600</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1035100</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>58.8125</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1035100</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>186498.99</v>
@@ -6567,10 +6567,10 @@
         <v>19720</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1183870</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>60.034</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1183870</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>161889.14</v>
@@ -6589,10 +6589,10 @@
         <v>21530</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1234130</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>57.3214</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1234130</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>166576.06</v>
@@ -6611,10 +6611,10 @@
         <v>21756</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1342947</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>61.7277</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1342947</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>165328.63</v>
@@ -6633,10 +6633,10 @@
         <v>23472</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1390410</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>59.237</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1390410</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>142593.54</v>
@@ -6655,10 +6655,10 @@
         <v>24239</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1371530</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>56.5836</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1371530</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>161450.99</v>
@@ -6677,10 +6677,10 @@
         <v>24447</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1382096</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>56.5344</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1382096</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>149944</v>
@@ -6699,10 +6699,10 @@
         <v>23600</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1384360</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>58.6593</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1384360</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>159331</v>
@@ -6721,10 +6721,10 @@
         <v>23170</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1316150</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>56.8041</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1316150</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>110457</v>
@@ -6743,10 +6743,10 @@
         <v>23020</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1293650</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>56.1968</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1293650</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>89955</v>
@@ -6765,10 +6765,10 @@
         <v>23500</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1270640</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>54.0698</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1270640</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>84890</v>
@@ -6787,10 +6787,10 @@
         <v>22040</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1148350</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>52.103</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1148350</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>64867</v>
@@ -6809,10 +6809,10 @@
         <v>21117</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1109215</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>52.5271</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1109215</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>71518</v>
@@ -6831,10 +6831,10 @@
         <v>21562</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1090436</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>50.5721</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1090436</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>69592</v>
@@ -6853,10 +6853,10 @@
         <v>21125</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1053242</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>49.8576</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1053242</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>55685</v>
@@ -6875,10 +6875,10 @@
         <v>20801</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1004163</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>48.2747</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1004163</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>42814</v>
@@ -6897,10 +6897,10 @@
         <v>19587</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>977945</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>49.9283</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>977945</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>40978</v>
@@ -6919,10 +6919,10 @@
         <v>19263</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>854845</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>44.3776</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>854845</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>40791</v>
@@ -6941,10 +6941,10 @@
         <v>18494</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>748885</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>40.4934</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>748885</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>32061</v>
@@ -6963,10 +6963,10 @@
         <v>19283</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>862828</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>44.7455</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>862828</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>34580.43</v>
@@ -6985,10 +6985,10 @@
         <v>18924</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>831258</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>43.9261</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>831258</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>43001</v>
@@ -7007,10 +7007,10 @@
         <v>18620</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>743750</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>39.9436</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>743750</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>26376</v>
@@ -7029,10 +7029,10 @@
         <v>17912</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>738354</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>41.2212</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>738354</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>14479</v>
@@ -7051,10 +7051,10 @@
         <v>19292</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>737492</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>38.2279</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>737492</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>30530</v>
@@ -7073,10 +7073,10 @@
         <v>19460</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>727200</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>37.369</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>727200</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>26684</v>
@@ -7095,10 +7095,10 @@
         <v>19760</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>748330</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>37.871</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>748330</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>19817</v>
@@ -7117,10 +7117,10 @@
         <v>20730</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>656620</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>31.6749</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>656620</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>14227</v>
@@ -7139,10 +7139,10 @@
         <v>20050</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>606000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>30.2244</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>606000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>10797</v>
@@ -7161,10 +7161,10 @@
         <v>18660</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>619600</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>33.2047</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>619600</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>14265</v>
@@ -7183,10 +7183,10 @@
         <v>18690</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>568940</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>30.4409</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>568940</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>14598</v>
@@ -7205,10 +7205,10 @@
         <v>18660</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>518000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>27.7599</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>518000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>16340</v>
@@ -7227,10 +7227,10 @@
         <v>19100</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>534800</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>28</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>534800</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>17875</v>
@@ -7249,10 +7249,10 @@
         <v>18660</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>506800</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>27.1597</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>506800</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>15045</v>
@@ -7271,10 +7271,10 @@
         <v>17970</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>462340</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>25.7284</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>462340</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>5816</v>
@@ -7293,10 +7293,10 @@
         <v>17850</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>462100</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>25.888</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>462100</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>4592</v>
@@ -7315,10 +7315,10 @@
         <v>17520</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>449462</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>25.6542</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>449462</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>3991</v>
@@ -7337,10 +7337,10 @@
         <v>17520</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>405283</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>23.1326</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>405283</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>2322</v>
@@ -7359,10 +7359,10 @@
         <v>16310</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>400470</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>24.5536</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>400470</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>2024</v>
@@ -7381,10 +7381,10 @@
         <v>14970</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>335657</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>22.422</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>335657</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3025</v>
@@ -7403,10 +7403,10 @@
         <v>14610</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>318420</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>21.7947</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>318420</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>5749</v>
@@ -7425,10 +7425,10 @@
         <v>14770</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>289390</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>19.5931</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>289390</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>14073</v>
@@ -7447,10 +7447,10 @@
         <v>15210</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>299369</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>19.6824</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>299369</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>15272</v>
@@ -7469,10 +7469,10 @@
         <v>14450</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>300277</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>20.7804</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>300277</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>11064</v>
@@ -7491,10 +7491,10 @@
         <v>13960</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>263082</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>18.8454</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>263082</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>9804</v>
@@ -7513,10 +7513,10 @@
         <v>16020</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>249475</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>15.5727</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>249475</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>15704</v>
@@ -7535,10 +7535,10 @@
         <v>15900</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>244031</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>15.3479</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>244031</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>19802</v>
@@ -7557,10 +7557,10 @@
         <v>16430</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>217723</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>13.2516</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>217723</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>17661</v>
@@ -7579,10 +7579,10 @@
         <v>17560</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>208651</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11.8822</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>208651</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>19611</v>
@@ -7601,10 +7601,10 @@
         <v>19340</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>235867</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12.1958</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>235867</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>25544</v>
@@ -7623,10 +7623,10 @@
         <v>20400</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>224982</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11.0285</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>224982</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>23184</v>
@@ -7645,10 +7645,10 @@
         <v>23100</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>220445</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>9.543100000000001</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>220445</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>21114</v>
@@ -7667,10 +7667,10 @@
         <v>25330</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>238589</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>9.4192</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>238589</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -7689,10 +7689,10 @@
         <v>27120</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>215003</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7.9278</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>215003</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -7710,10 +7710,10 @@
         <v>32010</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>210467</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>6.575</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>210467</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>5958</v>
@@ -7731,10 +7731,10 @@
         <v>32050</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>195952</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6.113899999999999</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>195952</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2922</v>
@@ -7752,10 +7752,10 @@
         <v>30330</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>249476</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>8.2254</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>249476</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>2352</v>
@@ -7773,10 +7773,10 @@
         <v>32400</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>231332</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>7.1399</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>231332</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1654</v>
@@ -7794,10 +7794,10 @@
         <v>35580</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>236031</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6.6338</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>236031</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>448</v>
@@ -7815,10 +7815,10 @@
         <v>35770</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>230110</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.433</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>230110</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>319</v>
@@ -8154,7 +8154,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8233,10 +8233,10 @@
         <v>21033</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>731144.9300000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>34.7612</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>731144.9300000001</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -8253,10 +8253,10 @@
         <v>19236</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>689013</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>35.8187</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>689013</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8273,10 +8273,10 @@
         <v>17164</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>663659</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>38.6661</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>663659</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -8293,10 +8293,10 @@
         <v>11850</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>438730</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>37.0236</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>438730</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8313,10 +8313,10 @@
         <v>14350</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>545284</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>38</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>545284</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1.8</v>
@@ -8335,10 +8335,10 @@
         <v>11604</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>445106</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>38.358</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>445106</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0</v>
@@ -8357,10 +8357,10 @@
         <v>8085</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>318950</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>39.4482</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>318950</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -8377,10 +8377,10 @@
         <v>9595</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>378960</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>39.4975</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>378960</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>10.5</v>
@@ -8399,10 +8399,10 @@
         <v>9614</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>435344</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>45.28230000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>435344</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.7</v>
@@ -8421,10 +8421,10 @@
         <v>6509</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>283471</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>43.5506</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>283471</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3.4</v>
@@ -8443,10 +8443,10 @@
         <v>5906</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>262432</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>44.4348</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>262432</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>5833</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>242297</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>41.539</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>242297</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>7</v>
@@ -8487,10 +8487,10 @@
         <v>5628</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>240284</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>42.6944</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>240284</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>348</v>
@@ -8509,10 +8509,10 @@
         <v>5245</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>238432</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>45.4589</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>238432</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>5763</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>242776</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>42.1267</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>242776</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>10</v>
@@ -8553,10 +8553,10 @@
         <v>5232</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>200254</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>38.27480000000001</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>200254</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1</v>
@@ -8575,10 +8575,10 @@
         <v>15059</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>174414</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>11.582</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>174414</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -8597,10 +8597,10 @@
         <v>10201</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>128349</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>12.582</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>128349</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>67</v>
@@ -8619,10 +8619,10 @@
         <v>3800</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>26.3158</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2</v>
@@ -8641,10 +8641,10 @@
         <v>3838</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>104971</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>27.3504</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>104971</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -8663,10 +8663,10 @@
         <v>3072</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>79771</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>25.9671</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>79771</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -8685,10 +8685,10 @@
         <v>2419</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>60017</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>24.8107</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>60017</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>2700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>68137</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>25.2359</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>68137</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>2689</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>70612</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>26.2596</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>70612</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.86</v>
@@ -8751,10 +8751,10 @@
         <v>2271</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>53684</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>23.6389</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>53684</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>15</v>
@@ -8773,10 +8773,10 @@
         <v>2425</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>52321</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>21.5757</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>52321</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -8793,10 +8793,10 @@
         <v>1977</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>45938</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>23.2362</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>45938</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -8813,10 +8813,10 @@
         <v>1705</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>36994</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>21.6974</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>36994</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -8833,10 +8833,10 @@
         <v>1650</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>32000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>19.3939</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>32000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -8853,10 +8853,10 @@
         <v>1580</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>27000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>17.0886</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>27000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -8873,10 +8873,10 @@
         <v>1550</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>16.129</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>25000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -8893,10 +8893,10 @@
         <v>1594</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>25200</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>15.8093</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>25200</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -8913,10 +8913,10 @@
         <v>1969</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>29927</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>15.1991</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>29927</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -8933,10 +8933,10 @@
         <v>2634</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>43053</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>16.3451</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>43053</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -8953,10 +8953,10 @@
         <v>1680</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>25909</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>15.422</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>25909</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -8973,10 +8973,10 @@
         <v>1680</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>24232</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>14.4238</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>24232</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -8993,10 +8993,10 @@
         <v>1260</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>19911</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>15.8024</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>19911</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -9013,10 +9013,10 @@
         <v>1680</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>28126</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>16.7417</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>28126</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -9033,10 +9033,10 @@
         <v>2100</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>21514</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>10.2448</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>21514</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -9053,10 +9053,10 @@
         <v>2100</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>19329</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9.2043</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>19329</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -9073,10 +9073,10 @@
         <v>840</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8841</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>10.525</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8841</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -9093,10 +9093,10 @@
         <v>420</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4282</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>10.1952</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>4282</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -9113,10 +9113,10 @@
         <v>420</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2415</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5.75</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2415</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -9133,10 +9133,10 @@
         <v>420</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2028</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4.828600000000001</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2028</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -9152,10 +9152,10 @@
       <c r="C56" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D56" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
       <c r="C57" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D57" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
         <v>0</v>
@@ -9188,10 +9188,10 @@
       <c r="C58" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D58" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
         <v>0</v>
@@ -9206,10 +9206,10 @@
       <c r="C59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D59" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
         <v>0</v>
@@ -9224,10 +9224,10 @@
       <c r="C60" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D60" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
       <c r="C61" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D61" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
       <c r="C62" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D62" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
         <v>0</v>
@@ -9278,10 +9278,10 @@
       <c r="C63" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D63" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
         <v>0</v>
@@ -9296,10 +9296,10 @@
       <c r="C64" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D64" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
         <v>0</v>
@@ -9314,10 +9314,10 @@
       <c r="C65" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D65" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
         <v>0</v>
@@ -9332,10 +9332,10 @@
       <c r="C66" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D66" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
         <v>0</v>
@@ -9350,10 +9350,10 @@
       <c r="C67" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D67" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
         <v>0</v>
@@ -9368,10 +9368,10 @@
       <c r="C68" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D68" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
         <v>0</v>
@@ -9385,10 +9385,10 @@
       <c r="C69" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
         <v>0</v>
@@ -9402,10 +9402,10 @@
       <c r="C70" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D70" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
       <c r="C71" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D71" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
         <v>0</v>
@@ -9436,10 +9436,10 @@
       <c r="C72" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D72" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
         <v>0</v>
@@ -9453,10 +9453,10 @@
       <c r="C73" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D73" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
         <v>0</v>
@@ -9470,10 +9470,10 @@
       <c r="C74" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D74" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
         <v>0</v>
@@ -9806,7 +9806,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9885,10 +9885,10 @@
         <v>21984</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>676818</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>30.7868</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>676818</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>42.15</v>
@@ -9907,10 +9907,10 @@
         <v>22272</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>728112</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>32.6918</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>728112</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>13.69</v>
@@ -9929,10 +9929,10 @@
         <v>18676</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>669195</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>35.8318</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>669195</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4.9</v>
@@ -9951,10 +9951,10 @@
         <v>17978</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>546525</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>30.3997</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>546525</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>24.62</v>
@@ -9973,10 +9973,10 @@
         <v>16090</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>486705</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>30.2489</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>486705</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>232.69</v>
@@ -9995,10 +9995,10 @@
         <v>16102</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>440968</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>27.3859</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>440968</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>22.5</v>
@@ -10017,10 +10017,10 @@
         <v>15392</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>400167</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>25.9984</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>400167</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2.56</v>
@@ -10039,10 +10039,10 @@
         <v>15431</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>415150</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>26.9036</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>415150</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>9.85</v>
@@ -10061,10 +10061,10 @@
         <v>14189</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>375800</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>26.4853</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>375800</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>4.03</v>
@@ -10083,10 +10083,10 @@
         <v>13423</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>376070</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>28.0168</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>376070</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>10.37</v>
@@ -10105,10 +10105,10 @@
         <v>13549</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>372498</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>27.4927</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>372498</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>12793</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>351834</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>27.5021</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>351834</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -10149,10 +10149,10 @@
         <v>11967</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>302416</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>25.2708</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>302416</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -10171,10 +10171,10 @@
         <v>11679</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>299940</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>25.682</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>299940</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>12150</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>291996</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>24.0326</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>291996</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>11279</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>261078</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>23.1473</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>261078</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -10237,10 +10237,10 @@
         <v>10955</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>250916</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>22.9042</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>250916</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>50</v>
@@ -10259,10 +10259,10 @@
         <v>9985</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>211127</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>21.1444</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>211127</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -10281,10 +10281,10 @@
         <v>10000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>200000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -10303,10 +10303,10 @@
         <v>9750</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>15.8974</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>155000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10325,10 +10325,10 @@
         <v>10400</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>14.4231</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>150000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -10347,10 +10347,10 @@
         <v>10000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>145000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>14.5</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>145000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>9700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>117000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>12.0619</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>117000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10391,10 +10391,10 @@
         <v>9465</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>13.7348</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>130000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -10413,10 +10413,10 @@
         <v>9400</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>129000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>13.7234</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>129000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>395</v>
@@ -10435,10 +10435,10 @@
         <v>9200</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>13.0435</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>25</v>
@@ -10457,10 +10457,10 @@
         <v>9050</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>12.1547</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2</v>
@@ -10479,10 +10479,10 @@
         <v>8570</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>107000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>12.4854</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>107000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -10501,10 +10501,10 @@
         <v>7150</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>76000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>10.6294</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>76000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -10521,10 +10521,10 @@
         <v>6990</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>9.298999999999999</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>65000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -10541,10 +10541,10 @@
         <v>6270</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>9.5694</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>60000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -10561,10 +10561,10 @@
         <v>5935</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8.4246</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -10581,10 +10581,10 @@
         <v>5566</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>51000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9.162799999999999</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>51000</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -10601,10 +10601,10 @@
         <v>5380</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>51000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>9.4796</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>51000</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -10621,10 +10621,10 @@
         <v>5200</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>9.615399999999999</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -10641,10 +10641,10 @@
         <v>4660</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>42000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>9.0129</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>42000</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -10661,10 +10661,10 @@
         <v>4620</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>8.657999999999999</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>40000</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -10681,10 +10681,10 @@
         <v>5000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>7</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>35000</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -10701,10 +10701,10 @@
         <v>5000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>33500</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6.7</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>33500</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -10721,10 +10721,10 @@
         <v>5300</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4.717</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>25000</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -10741,10 +10741,10 @@
         <v>4500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>4.8889</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>22000</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -10761,10 +10761,10 @@
         <v>4000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>5.5</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>22000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -10781,10 +10781,10 @@
         <v>5000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>23000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4.6</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>23000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -10801,10 +10801,10 @@
         <v>5000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>23000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4.6</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>23000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -10821,10 +10821,10 @@
         <v>5000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4.4</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>22000</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -10841,10 +10841,10 @@
         <v>3500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>6</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>21000</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -10861,10 +10861,10 @@
         <v>3000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>6</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>18000</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -10881,10 +10881,10 @@
         <v>3500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5.1429</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>18000</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -10901,10 +10901,10 @@
         <v>3400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>16200</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4.764699999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>16200</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -10921,10 +10921,10 @@
         <v>3300</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>16500</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>16500</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -10941,10 +10941,10 @@
         <v>3081</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>12800</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4.1545</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>12800</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -10961,10 +10961,10 @@
         <v>2460</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>12250</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4.9797</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>12250</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -10981,10 +10981,10 @@
         <v>2851</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>16500</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5.7874</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>16500</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11001,10 +11001,10 @@
         <v>2100</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4.619</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>9700</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11021,10 +11021,10 @@
         <v>2060</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4.708699999999999</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>9700</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11041,10 +11041,10 @@
         <v>2000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11061,10 +11061,10 @@
         <v>1600</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4.375</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7000</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11080,10 +11080,10 @@
         <v>1500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>6700</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4.466699999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>6700</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11099,10 +11099,10 @@
         <v>1450</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4.4828</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6500</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11118,10 +11118,10 @@
         <v>1450</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>4.4828</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6500</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11137,10 +11137,10 @@
         <v>1450</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4.4828</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6500</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11156,10 +11156,10 @@
         <v>1400</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6400</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>4.5714</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6400</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11175,10 +11175,10 @@
         <v>1400</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6400</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4.5714</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6400</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11512,7 +11512,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11591,10 +11591,10 @@
         <v>15267</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>641552.22</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>42.0235</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>641552.22</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>25998.8</v>
@@ -11613,10 +11613,10 @@
         <v>13294</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>578141.89</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>43.4888</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>578141.89</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>24109.8</v>
@@ -11635,10 +11635,10 @@
         <v>11905</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>542890.63</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>45.6016</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>542890.63</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>16590.1</v>
@@ -11657,10 +11657,10 @@
         <v>12913</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>557514.2</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>43.1738</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>557514.2</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>15497.22</v>
@@ -11679,10 +11679,10 @@
         <v>16429</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>861336.8199999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>52.4263</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>861336.8199999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>16959.8</v>
@@ -11701,10 +11701,10 @@
         <v>13652</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>653639.24</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>47.8781</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>653639.24</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>19029.56</v>
@@ -11723,10 +11723,10 @@
         <v>13850</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>658435.89</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>47.5413</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>658435.89</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>17484.6</v>
@@ -11745,10 +11745,10 @@
         <v>11091</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>468248.48</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>42.219</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>468248.48</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>15707.2</v>
@@ -11767,10 +11767,10 @@
         <v>10073</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>392625.19</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>38.9762</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>392625.19</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>15149.18</v>
@@ -11789,10 +11789,10 @@
         <v>9966</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>458971.63</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>46.0544</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>458971.63</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>17647.46</v>
@@ -11811,10 +11811,10 @@
         <v>8496</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>379464</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>44.6638</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>379464</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>16331</v>
@@ -11833,10 +11833,10 @@
         <v>8664</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>360426</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>41.6004</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>360426</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>12262</v>
@@ -11855,10 +11855,10 @@
         <v>6978</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>228900</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>32.8031</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>228900</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>12407</v>
@@ -11877,10 +11877,10 @@
         <v>6282</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>226657</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>36.0804</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>226657</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>12484</v>
@@ -11899,10 +11899,10 @@
         <v>6678</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>233041</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>34.89680000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>233041</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>14070</v>
@@ -11921,10 +11921,10 @@
         <v>6176</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>207485</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>33.5954</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>207485</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>24926</v>
@@ -11943,10 +11943,10 @@
         <v>6238</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>176396</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>28.2777</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>176396</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>20572</v>
@@ -11965,10 +11965,10 @@
         <v>6403</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>191843</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>29.9614</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>191843</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>18992</v>
@@ -11987,10 +11987,10 @@
         <v>5657</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>162627</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>28.7479</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>162627</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>13430</v>
@@ -12009,10 +12009,10 @@
         <v>6326</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>177230</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>28.0161</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>177230</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>12339</v>
@@ -12031,10 +12031,10 @@
         <v>5414</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>150261</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>27.7542</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>150261</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>11782</v>
@@ -12053,10 +12053,10 @@
         <v>5850</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>142245</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>24.3154</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>142245</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>13745</v>
@@ -12075,10 +12075,10 @@
         <v>5699</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>130688</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>22.9317</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>130688</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>9630</v>
@@ -12097,10 +12097,10 @@
         <v>6503</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>141130</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>21.7023</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>141130</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>10912.66</v>
@@ -12119,10 +12119,10 @@
         <v>6841</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>137736</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>20.1339</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>137736</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>5436</v>
@@ -12141,10 +12141,10 @@
         <v>6539</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>118805</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>18.1687</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>118805</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>3894</v>
@@ -12163,10 +12163,10 @@
         <v>6126</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>98398</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>16.0624</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>98398</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>3465</v>
@@ -12185,10 +12185,10 @@
         <v>7193</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>119148</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>16.5644</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>119148</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>4086</v>
@@ -12207,10 +12207,10 @@
         <v>7149</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>131839</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>18.4416</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>131839</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>3698</v>
@@ -12229,10 +12229,10 @@
         <v>4977</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>95006</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>19.089</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>95006</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>9388</v>
@@ -12251,10 +12251,10 @@
         <v>5761</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>94657</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>16.4307</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>94657</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>6272</v>
@@ -12273,10 +12273,10 @@
         <v>5691</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>76589</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>13.4579</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>76589</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>5287</v>
@@ -12295,10 +12295,10 @@
         <v>7683</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>88162</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>11.4749</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>88162</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>3594</v>
@@ -12317,10 +12317,10 @@
         <v>5143</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>106912</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>20.7879</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>106912</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>862</v>
@@ -12339,10 +12339,10 @@
         <v>4649</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>84517</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>18.1796</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>84517</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>756</v>
@@ -12361,10 +12361,10 @@
         <v>5753</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>77549</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>13.4797</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>77549</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>69</v>
@@ -12383,10 +12383,10 @@
         <v>4632</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>84896</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>18.3282</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>84896</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>50</v>
@@ -12405,10 +12405,10 @@
         <v>3310</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>44301</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>13.384</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>44301</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>13</v>
@@ -12427,10 +12427,10 @@
         <v>4401</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>56665</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>12.8755</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>56665</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>27</v>
@@ -12449,10 +12449,10 @@
         <v>2467</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>43131</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>17.4832</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>43131</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>30</v>
@@ -12471,10 +12471,10 @@
         <v>4341</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>77827</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>17.9284</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>77827</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12493,10 +12493,10 @@
         <v>4024</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>57821</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.369</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>57821</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>120</v>
@@ -12515,10 +12515,10 @@
         <v>3706</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>53911</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>14.547</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>53911</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>344</v>
@@ -12537,10 +12537,10 @@
         <v>6133</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>78119</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12.7375</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>78119</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>22</v>
@@ -12559,10 +12559,10 @@
         <v>8025</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>120550</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15.0218</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>120550</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12581,10 +12581,10 @@
         <v>6237</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>99379</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>15.9338</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>99379</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -12603,10 +12603,10 @@
         <v>5631</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>104040</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>18.4763</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>104040</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -12625,10 +12625,10 @@
         <v>5380</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>89321</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16.6024</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>89321</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -12647,10 +12647,10 @@
         <v>5406</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>69000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>12.7636</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>69000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -12669,10 +12669,10 @@
         <v>5659</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>101789</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>17.9871</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>101789</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -12691,10 +12691,10 @@
         <v>6681</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>105044</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>15.7228</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>105044</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -12713,10 +12713,10 @@
         <v>5758</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>89474</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>15.5391</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>89474</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -12735,10 +12735,10 @@
         <v>6903</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>103440</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>14.9848</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>103440</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -12757,10 +12757,10 @@
         <v>7873</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>126926</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>16.1217</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>126926</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -12779,10 +12779,10 @@
         <v>6576</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>104194</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>15.8446</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>104194</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -12801,10 +12801,10 @@
         <v>6989</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>115187</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>16.4812</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>115187</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -12823,10 +12823,10 @@
         <v>8302</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>127820</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>15.3963</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>127820</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -12844,10 +12844,10 @@
         <v>8832</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>143671</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>16.2671</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>143671</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -12865,10 +12865,10 @@
         <v>6395</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>87504</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>13.6832</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>87504</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -12886,10 +12886,10 @@
         <v>5215</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>71684</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>13.7457</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>71684</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -12907,10 +12907,10 @@
         <v>6280</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>33133</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5.276</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>33133</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -12928,10 +12928,10 @@
         <v>6559</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>34324</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5.2331</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>34324</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -12949,10 +12949,10 @@
         <v>5284</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>24936</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4.7192</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>24936</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
